--- a/TestCasesCompetitionTask.xlsx
+++ b/TestCasesCompetitionTask.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shilpi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Industry Connect\Mars_Competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DA35DA-6FE8-431D-8C66-0C88AA725F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD62CE89-9E99-4967-97DC-33572974DCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{942C73C8-B20E-4BAF-BBF9-3EFEBE9CA867}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="231">
   <si>
     <t xml:space="preserve">Status </t>
   </si>
@@ -717,6 +717,18 @@
   </si>
   <si>
     <t xml:space="preserve">Validate if an existing user can add or update Certificate with destructive data on the profile page   </t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>Verify if an existing user can delete all existing Certificate records before adding a new record  under the profile page</t>
+  </si>
+  <si>
+    <t>Verify if an existing user can delete  all existing Education records before adding new records under the profile page</t>
+  </si>
+  <si>
+    <t>Certificate/Award - DB2                   Certified from:- IBM                   Year :-2009 Certificate/Award - ABC                  Certified from:- ITC                   Year :-2011 Certificate/Award - QWE                 Certified from:- XZS                   Year :-2014</t>
   </si>
 </sst>
 </file>
@@ -995,56 +1007,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E5A988-6A8D-4967-8011-F156071F5AD8}">
-  <dimension ref="A2:J63"/>
+  <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,10 +1433,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>130</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -1433,13 +1445,13 @@
       <c r="D4" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="47" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="25" t="s">
@@ -1453,17 +1465,17 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="10" t="s">
         <v>58</v>
       </c>
@@ -1486,46 +1498,46 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>106</v>
+      <c r="F7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
+    <row r="8" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>62</v>
@@ -1534,70 +1546,70 @@
         <v>84</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="J9" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B11" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="40"/>
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>64</v>
+      <c r="D11" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>81</v>
@@ -1606,30 +1618,26 @@
         <v>84</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>222</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>224</v>
+      <c r="D12" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>81</v>
@@ -1638,304 +1646,324 @@
         <v>84</v>
       </c>
       <c r="G12" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I13" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="J15" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B17" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="34"/>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="34"/>
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>50</v>
+      <c r="F18" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J19" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B21" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="35"/>
       <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="37"/>
-      <c r="B22" s="35"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I24" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="5"/>
+      <c r="J24" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="28"/>
@@ -1946,102 +1974,86 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F27" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I27" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+      <c r="J27" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B29" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="35"/>
       <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I29" s="30" t="s">
         <v>52</v>
@@ -2050,26 +2062,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="35"/>
+    <row r="30" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I30" s="30" t="s">
         <v>52</v>
@@ -2078,60 +2090,58 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="31" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>81</v>
@@ -2139,312 +2149,326 @@
       <c r="F33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="I33" s="29" t="s">
+      <c r="I34" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A34" s="46" t="s">
+      <c r="J34" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="A35" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-    </row>
-    <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B36" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D36" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E36" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F36" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="G35" s="48" t="s">
+      <c r="G36" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H36" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I36" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J35" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="2" t="s">
+      <c r="J36" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="39"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="10" t="s">
+      <c r="E37" s="38"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="27" t="s">
+      <c r="I37" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="J36" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-    </row>
-    <row r="38" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="34" t="s">
+      <c r="J37" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D39" s="10" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>139</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>203</v>
+        <v>155</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
+    <row r="40" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>226</v>
-      </c>
+      <c r="A41" s="39"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I41" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>147</v>
       </c>
       <c r="F43" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G43" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I43" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="G44" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A45" s="34"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>147</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>51</v>
+        <v>207</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
+      <c r="A46" s="2"/>
       <c r="B46" s="6"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="10"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="27"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
@@ -2452,261 +2476,261 @@
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
     </row>
-    <row r="47" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>158</v>
+    <row r="47" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>147</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="J47" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="2" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D49" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F49" s="24" t="s">
-        <v>50</v>
+      <c r="F49" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="J49" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-    </row>
-    <row r="51" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>167</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="37"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="34"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>169</v>
+      <c r="F51" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52" s="24" t="s">
+      <c r="D53" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>175</v>
-      </c>
       <c r="F53" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J53" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="35"/>
+    <row r="54" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>147</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J54" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+    <row r="55" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="56" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="A56" s="34"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F56" s="24" t="s">
-        <v>183</v>
+      <c r="F56" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="J56" s="13" t="s">
         <v>44</v>
@@ -2724,74 +2748,62 @@
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
     </row>
-    <row r="58" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>186</v>
+    <row r="58" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G58" s="24" t="s">
-        <v>211</v>
+      <c r="F58" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>52</v>
+        <v>184</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="J58" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="2" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+    </row>
+    <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="33"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D60" s="10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>147</v>
@@ -2800,10 +2812,10 @@
         <v>200</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>52</v>
@@ -2812,111 +2824,169 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-    </row>
-    <row r="62" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>191</v>
-      </c>
+    <row r="61" spans="1:10" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="39"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="39"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G62" s="27"/>
-      <c r="H62" s="10" t="s">
+      <c r="G64" s="27"/>
+      <c r="H64" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="I62" s="27" t="s">
+      <c r="I64" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J62" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="J64" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="C65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E65" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G63" s="27"/>
-      <c r="H63" s="10" t="s">
+      <c r="G65" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="H65" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="I63" s="29" t="s">
+      <c r="I65" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="J63" s="13" t="s">
+      <c r="J65" s="13" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
